--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="2">
   <si>
     <t>A</t>
   </si>
@@ -361,41 +361,553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G7:G12"/>
+  <dimension ref="G7:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G12"/>
+      <selection activeCell="J8" sqref="J8:R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
         <v>1</v>
       </c>
     </row>

--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -35,12 +35,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,7 +371,7 @@
   <dimension ref="G7:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:R25"/>
+      <selection activeCell="J8" sqref="J8:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,10 +385,10 @@
       <c r="G8" t="s">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L8" t="s">
@@ -410,10 +417,10 @@
       <c r="G9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L9" t="s">
@@ -442,10 +449,10 @@
       <c r="G10" t="s">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L10" t="s">
@@ -474,10 +481,10 @@
       <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="J11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L11" t="s">
@@ -506,10 +513,10 @@
       <c r="G12" t="s">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L12" t="s">
@@ -535,10 +542,10 @@
       </c>
     </row>
     <row r="13" spans="7:18" x14ac:dyDescent="0.3">
-      <c r="J13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L13" t="s">
@@ -564,10 +571,10 @@
       </c>
     </row>
     <row r="14" spans="7:18" x14ac:dyDescent="0.3">
-      <c r="J14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L14" t="s">
@@ -593,10 +600,10 @@
       </c>
     </row>
     <row r="15" spans="7:18" x14ac:dyDescent="0.3">
-      <c r="J15" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L15" t="s">
@@ -622,10 +629,10 @@
       </c>
     </row>
     <row r="16" spans="7:18" x14ac:dyDescent="0.3">
-      <c r="J16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L16" t="s">
@@ -651,10 +658,10 @@
       </c>
     </row>
     <row r="17" spans="10:18" x14ac:dyDescent="0.3">
-      <c r="J17" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="J17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L17" t="s">
@@ -680,10 +687,10 @@
       </c>
     </row>
     <row r="18" spans="10:18" x14ac:dyDescent="0.3">
-      <c r="J18" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L18" t="s">
@@ -709,10 +716,10 @@
       </c>
     </row>
     <row r="19" spans="10:18" x14ac:dyDescent="0.3">
-      <c r="J19" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="J19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L19" t="s">
@@ -738,10 +745,10 @@
       </c>
     </row>
     <row r="20" spans="10:18" x14ac:dyDescent="0.3">
-      <c r="J20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="J20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L20" t="s">
@@ -767,10 +774,10 @@
       </c>
     </row>
     <row r="21" spans="10:18" x14ac:dyDescent="0.3">
-      <c r="J21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L21" t="s">
@@ -796,10 +803,10 @@
       </c>
     </row>
     <row r="22" spans="10:18" x14ac:dyDescent="0.3">
-      <c r="J22" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="J22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L22" t="s">
@@ -825,10 +832,10 @@
       </c>
     </row>
     <row r="23" spans="10:18" x14ac:dyDescent="0.3">
-      <c r="J23" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L23" t="s">
@@ -854,10 +861,10 @@
       </c>
     </row>
     <row r="24" spans="10:18" x14ac:dyDescent="0.3">
-      <c r="J24" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="J24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L24" t="s">
@@ -883,10 +890,10 @@
       </c>
     </row>
     <row r="25" spans="10:18" x14ac:dyDescent="0.3">
-      <c r="J25" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L25" t="s">
